--- a/Realtime Solar Disc.xlsx
+++ b/Realtime Solar Disc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Space Based Product Store\Realtime Solar Disc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Rasb Pi\Solar Disk Kiosk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464AE36-CD89-4A07-9DC9-342430CC836C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CBD561-1232-479C-AF21-BE5C7098A3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>VNC</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>sudo systemctl status kiosk.service</t>
+  </si>
+  <si>
+    <t>disable:</t>
+  </si>
+  <si>
+    <t>https://pimylifeup.com/raspberry-pi-kiosk/</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +474,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
